--- a/segunda_fase/Exploración espacio diseño/Pugh_Marco.xlsx
+++ b/segunda_fase/Exploración espacio diseño/Pugh_Marco.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t xml:space="preserve">Encender/apagar el dispositivo</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Recepción de comandos</t>
   </si>
   <si>
+    <t xml:space="preserve">Req. ID.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criterio</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t xml:space="preserve">Botón capacitivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Conexión electrodos</t>
+    <t xml:space="preserve">Autoencendido</t>
   </si>
   <si>
     <t xml:space="preserve">Touchscreen cap.</t>
@@ -61,7 +64,10 @@
     <t xml:space="preserve">Orange Pi zero</t>
   </si>
   <si>
-    <t xml:space="preserve">Uso intuitivo</t>
+    <t xml:space="preserve">SyRS-107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accesibilidad</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -73,13 +79,16 @@
     <t xml:space="preserve">Precio</t>
   </si>
   <si>
-    <t xml:space="preserve">Activación involuntaria</t>
+    <t xml:space="preserve">SyRS-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguridad para el usuario</t>
   </si>
   <si>
     <t xml:space="preserve">Soporte OS</t>
   </si>
   <si>
-    <t xml:space="preserve">Facilidad implementación</t>
+    <t xml:space="preserve">Complejidad implementación</t>
   </si>
   <si>
     <t xml:space="preserve">Resistencia mecánica</t>
@@ -227,15 +236,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:R18"/>
+  <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.61"/>
@@ -270,61 +279,67 @@
       <c r="R2" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -333,13 +348,13 @@
         <v>-1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0</v>
@@ -348,13 +363,13 @@
         <v>-1</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>-1</v>
@@ -364,8 +379,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3</v>
@@ -375,10 +393,10 @@
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>3</v>
@@ -391,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>3</v>
@@ -406,7 +424,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -419,7 +437,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>1</v>
@@ -432,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>1</v>
@@ -461,7 +479,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="n">
@@ -470,10 +488,10 @@
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">F5*C5+F6*C6+F7*C7</f>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="n">
@@ -485,7 +503,7 @@
         <v>-1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="n">
@@ -513,79 +531,79 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
